--- a/data/xlsx/magic.xlsx
+++ b/data/xlsx/magic.xlsx
@@ -23,7 +23,7 @@
     <t>info</t>
   </si>
   <si>
-    <t>desc</t>
+    <t>description</t>
   </si>
   <si>
     <t>fp_cost</t>
